--- a/util/exceldocint.xlsx
+++ b/util/exceldocint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{850DB280-E095-4E4E-AC6A-67603A337180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C91202-1D23-4298-851C-2D7E2A5ED925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="598" xr2:uid="{31391353-670E-4DB5-9BD0-7157CD124192}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="598" activeTab="4" xr2:uid="{31391353-670E-4DB5-9BD0-7157CD124192}"/>
   </bookViews>
   <sheets>
     <sheet name="1 e 2TAP" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="267">
   <si>
     <t>TERMO DE ABERTURA DE PROJETO  (MODELO)</t>
   </si>
@@ -134,13 +134,13 @@
     <t>Projeto:</t>
   </si>
   <si>
-    <t>BuscaShop</t>
+    <t>MeuCardápio</t>
   </si>
   <si>
     <t>2. JUSTIFICATIVA</t>
   </si>
   <si>
-    <t>Otimizar o tempo dos clientes, criando uma aplicação web que agrupa todas as lojas mais confiáveis em um só lugar, facilitando a busca por produtos na internet.</t>
+    <t>Criar uma aplicação web para facilitar e integrar estabelecimentos que não utilizam de tecnologias para melhor estádia de seus clientes ao digital</t>
   </si>
   <si>
     <t>3. OBJETIVO E META</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">3.1. Objetivo </t>
   </si>
   <si>
-    <t>Deixar o usuário escolher dentre as lojas disponíveis e pesquisar pelo produto desejado, aparecendo resultados com boas avaliações e sendo o produto ideal para o usuário com boas promoções e fazendo o usuário economizar e sendo um produto estável por conta de anúncios que irão gerar receita para a aplicação.</t>
+    <t>Permitir o usuário a criar cardápios, identificando o item, valor e uma descrição breve sobre. Agregando valor ao restaurante que poderá disponibiliza-lo na rede e usufluir da tecnologia dos QR Codes para implementar esse software no cotidiano do estabelecimento.</t>
   </si>
   <si>
     <t>3.2. Meta</t>
   </si>
   <si>
-    <t>Entregar um software capaz de realizar pesquisas de produtos e redirecionar o usuário para a compra até a 31/11.</t>
+    <t>Entregar um software capaz de armazenar e criar cardápios completos até a data 14/11.</t>
   </si>
   <si>
     <t>4.1. Descrição</t>
   </si>
   <si>
-    <t>Software rápido e prático para otimizar o tempo na busca de produtos online, de eletrodomésticos até peças de roupas e muito mais.</t>
+    <t>Software rápido e prático para acessibilizar a criação de cardápios sem a necessidade de contratar um especialista para essa única finalidade</t>
   </si>
   <si>
     <t>5. PRAZO ESTIMADO</t>
@@ -176,24 +176,7 @@
     <t>7. PRINCIPAIS PARTES INTERESSADAS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Público consumidor insatisfeito e com pouco tempo para procurar produtos nas mais diversas lojas virtuais do mercado.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="48"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>Público proprietário de estabelecimentos comerciais, não necessáriamente restaurantes/bares mas focados nesse âmbito</t>
   </si>
   <si>
     <t>8. PREMISSAS OU RESTRIÇÕES</t>
@@ -202,13 +185,13 @@
     <t>8.1. Premissas</t>
   </si>
   <si>
-    <t>Até 31/09 terá um protótipo funcional do projeto, durante outubro refinar o software e em novembro entregar o projeto finalizado.</t>
+    <t>Até a data da apresentação o software deverá ler com QR Code e chegar no cardápio final com resultado satisfatório</t>
   </si>
   <si>
     <t>8.2.. Restrições</t>
   </si>
   <si>
-    <t>O projeto está sujeito a limitações técnicas relacionadas ás lojas disponíveis para busca e estar finalizado até a data de entrega.</t>
+    <t>O projeto está sujeito a limitações técnicas relacionadas ao uso de QR Code e estar finalizado até a data de entrega.</t>
   </si>
   <si>
     <t>10. RESPONSÁVEIS</t>
@@ -301,19 +284,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Fred Carvalho</t>
+    <t>ANÁLISE DAS PARTES INTERESSADAS (MODELO)</t>
   </si>
   <si>
-    <t>fredenricocarvalho407@gmail.com</t>
-  </si>
-  <si>
-    <t>Paulo Thiago</t>
-  </si>
-  <si>
-    <t>paulothiago20000@gmail.com</t>
-  </si>
-  <si>
-    <t>ANÁLISE DAS PARTES INTERESSADAS (MODELO)</t>
+    <t>Simplificar a criação de cardápios digitais</t>
   </si>
   <si>
     <t>2. PARTES INTERESSADAS (STAKEHOLDERS)</t>
@@ -361,22 +335,16 @@
     <t>Término</t>
   </si>
   <si>
-    <t>1.FAZER A IDENTIDADE VISUAL</t>
+    <t xml:space="preserve"> 1.CRIAS AS PÁGINAS DO SITE</t>
   </si>
   <si>
-    <t>PAULO</t>
+    <t>ARTHUR</t>
   </si>
   <si>
-    <t>1.1.FAZER ESTRUTURA-BASE DO SITE</t>
-  </si>
-  <si>
-    <t>FRED</t>
+    <t>1.1.FAZER O BACK-END DO SITE</t>
   </si>
   <si>
     <t>1.2.FAZER A ESTRUTURA DO SERVIDOR</t>
-  </si>
-  <si>
-    <t>ARTHUR</t>
   </si>
   <si>
     <t>2.</t>
@@ -982,7 +950,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* \-??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1154,8 +1122,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,12 +1198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,7 +1597,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2062,15 +2029,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2089,7 +2047,16 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2097,9 +2064,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2110,34 +2074,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2149,31 +2092,28 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2184,6 +2124,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2200,16 +2149,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,16 +2188,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2254,43 +2212,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
@@ -2332,25 +2278,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2359,16 +2305,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2392,25 +2350,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2419,11 +2377,23 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2446,32 +2416,23 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2482,8 +2443,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -2976,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DD9239-E81B-4755-B118-DBEBB2FFCB58}">
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:I12"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -2991,62 +2952,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="62.25" customHeight="1">
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="182"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="185"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="2:10" ht="6.95" customHeight="1">
@@ -3083,17 +3044,17 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="168"/>
-      <c r="D9" s="160" t="s">
+      <c r="C9" s="174"/>
+      <c r="D9" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="5"/>
       <c r="J9" s="19"/>
     </row>
@@ -3108,140 +3069,140 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="182"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="185"/>
     </row>
     <row r="12" spans="2:10" ht="42" customHeight="1">
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
     </row>
     <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
     </row>
     <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
     </row>
     <row r="15" spans="2:10" ht="44.25" customHeight="1">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="167"/>
     </row>
     <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="166"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="165"/>
     </row>
     <row r="17" spans="2:10" ht="40.5" customHeight="1">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="188"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="167"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="179"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="171"/>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="166"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
     </row>
     <row r="20" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
     </row>
     <row r="21" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B21" s="177" t="s">
+      <c r="B21" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="179"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="171"/>
     </row>
     <row r="22" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="161"/>
@@ -3253,43 +3214,43 @@
       <c r="I22" s="162"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="171"/>
     </row>
     <row r="24" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B24" s="197">
+      <c r="B24" s="157">
         <v>0</v>
       </c>
-      <c r="C24" s="198"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="199"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="179"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="171"/>
     </row>
     <row r="26" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="289" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3301,59 +3262,59 @@
       <c r="I26" s="162"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="185" t="s">
+      <c r="B27" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="185"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
     </row>
     <row r="28" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B28" s="164" t="s">
+      <c r="B28" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="165" t="s">
+      <c r="C28" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="166"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="165"/>
     </row>
     <row r="29" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="187"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="167"/>
     </row>
     <row r="30" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="165" t="s">
+      <c r="C30" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="166"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="165"/>
     </row>
     <row r="31" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="160" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="161"/>
@@ -3365,16 +3326,16 @@
       <c r="I31" s="162"/>
     </row>
     <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="182"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
     </row>
     <row r="33" spans="2:10" ht="6.95" customHeight="1">
       <c r="B33" s="12"/>
@@ -3387,41 +3348,41 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="171" t="s">
+      <c r="C34" s="174"/>
+      <c r="D34" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="173"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="177"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="173"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="177"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="168"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="173"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="177"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:10" ht="6.95" customHeight="1">
@@ -3435,39 +3396,39 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="168"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="173"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="177"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="168"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="173"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="175"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="177"/>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="168"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="173"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="177"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:10" ht="6.95" customHeight="1">
@@ -3481,30 +3442,30 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="185" t="s">
+      <c r="B42" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
     </row>
     <row r="43" spans="2:10" ht="20.100000000000001" hidden="1" customHeight="1">
-      <c r="B43" s="194" t="s">
+      <c r="B43" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="195" t="s">
+      <c r="C43" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="196"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="190"/>
     </row>
     <row r="44" spans="2:10" ht="6.95" customHeight="1">
       <c r="B44" s="22"/>
@@ -3519,28 +3480,28 @@
     </row>
     <row r="45" spans="2:10" ht="30" customHeight="1">
       <c r="B45" s="6"/>
-      <c r="C45" s="183" t="s">
+      <c r="C45" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="184"/>
-      <c r="E45" s="163" t="s">
+      <c r="D45" s="194"/>
+      <c r="E45" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163" t="s">
+      <c r="F45" s="178"/>
+      <c r="G45" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="163"/>
+      <c r="H45" s="178"/>
       <c r="I45" s="23"/>
     </row>
     <row r="46" spans="2:10" ht="27" customHeight="1">
       <c r="B46" s="6"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
       <c r="I46" s="23"/>
     </row>
     <row r="47" spans="2:10" ht="6.95" customHeight="1">
@@ -3555,18 +3516,18 @@
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="185" t="s">
+      <c r="B48" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="185" t="s">
+      <c r="C48" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="186"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="195"/>
     </row>
     <row r="49" spans="2:10" ht="6.95" customHeight="1">
       <c r="B49" s="6"/>
@@ -3581,31 +3542,31 @@
     </row>
     <row r="50" spans="2:10" ht="19.5" customHeight="1">
       <c r="B50" s="6"/>
-      <c r="C50" s="163" t="s">
+      <c r="C50" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163" t="s">
+      <c r="D50" s="178"/>
+      <c r="E50" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163" t="s">
+      <c r="F50" s="178"/>
+      <c r="G50" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="163"/>
+      <c r="H50" s="178"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="2:10" ht="27" customHeight="1">
       <c r="B51" s="6"/>
-      <c r="C51" s="169" t="str">
+      <c r="C51" s="191" t="str">
         <f>D34</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="192"/>
+      <c r="G51" s="192"/>
+      <c r="H51" s="192"/>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="2:10" ht="6.95" customHeight="1">
@@ -3621,31 +3582,31 @@
     </row>
     <row r="53" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="6"/>
-      <c r="C53" s="163" t="s">
+      <c r="C53" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163" t="s">
+      <c r="D53" s="178"/>
+      <c r="E53" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163" t="s">
+      <c r="F53" s="178"/>
+      <c r="G53" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="163"/>
+      <c r="H53" s="178"/>
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="2:10" ht="27" customHeight="1">
       <c r="B54" s="6"/>
-      <c r="C54" s="169">
+      <c r="C54" s="191">
         <f>D38</f>
         <v>0</v>
       </c>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="192"/>
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="2:10" ht="6.95" customHeight="1">
@@ -3672,20 +3633,38 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B17:I17"/>
@@ -3702,38 +3681,20 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3768,47 +3729,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="52.5" customHeight="1">
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="73"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1">
-      <c r="B3" s="217" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
+      <c r="B3" s="212" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="2:8" ht="14.25">
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="2:8" ht="6.95" customHeight="1">
       <c r="B6" s="6"/>
@@ -3823,13 +3784,13 @@
       <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
       <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:8" ht="6.95" customHeight="1">
@@ -3845,13 +3806,13 @@
       <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
+      <c r="C9" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" ht="6.95" customHeight="1">
@@ -3867,13 +3828,13 @@
       <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
+      <c r="C11" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
       <c r="H11" s="39"/>
     </row>
     <row r="12" spans="2:8" ht="6.95" customHeight="1">
@@ -3886,61 +3847,61 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="180" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
+      <c r="B13" s="183" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
     </row>
     <row r="14" spans="2:8" s="41" customFormat="1" ht="34.5" customHeight="1">
       <c r="B14" s="74" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="183" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="206"/>
-      <c r="H14" s="184"/>
+        <v>138</v>
+      </c>
+      <c r="F14" s="193" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="204"/>
+      <c r="H14" s="194"/>
     </row>
     <row r="15" spans="2:8" s="41" customFormat="1" ht="41.25" customHeight="1">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="64"/>
       <c r="E15" s="77"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="255"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="252"/>
     </row>
     <row r="16" spans="2:8" s="41" customFormat="1" ht="41.25" customHeight="1">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="64"/>
       <c r="E16" s="77"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="255"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="252"/>
     </row>
     <row r="17" spans="2:16" s="65" customFormat="1" ht="41.25" customHeight="1">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="64"/>
       <c r="E17" s="77"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="255"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="252"/>
       <c r="O17" s="69"/>
     </row>
     <row r="18" spans="2:16" s="65" customFormat="1" ht="41.25" customHeight="1">
@@ -3948,9 +3909,9 @@
       <c r="C18" s="33"/>
       <c r="D18" s="64"/>
       <c r="E18" s="77"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="255"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="252"/>
       <c r="O18" s="69"/>
     </row>
     <row r="19" spans="2:16" s="65" customFormat="1" ht="41.25" customHeight="1">
@@ -3958,9 +3919,9 @@
       <c r="C19" s="33"/>
       <c r="D19" s="64"/>
       <c r="E19" s="77"/>
-      <c r="F19" s="254"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="255"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="252"/>
       <c r="O19" s="69"/>
     </row>
     <row r="20" spans="2:16" s="65" customFormat="1" ht="41.25" customHeight="1">
@@ -3968,9 +3929,9 @@
       <c r="C20" s="33"/>
       <c r="D20" s="64"/>
       <c r="E20" s="77"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="255"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="253"/>
+      <c r="H20" s="252"/>
       <c r="O20" s="69"/>
     </row>
     <row r="21" spans="2:16" ht="31.5" customHeight="1">
@@ -3980,86 +3941,86 @@
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
-      <c r="J21" s="241" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="241"/>
-      <c r="L21" s="242" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="242"/>
-      <c r="N21" s="242"/>
+      <c r="J21" s="239" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="239"/>
+      <c r="L21" s="240" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="240"/>
+      <c r="N21" s="240"/>
       <c r="O21" s="69"/>
       <c r="P21" s="65"/>
     </row>
     <row r="22" spans="2:16" ht="31.5" customHeight="1">
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
+      <c r="J22" s="239"/>
+      <c r="K22" s="239"/>
       <c r="L22" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="31.5" customHeight="1">
+      <c r="J23" s="240" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="31.5" customHeight="1">
+      <c r="J24" s="240"/>
+      <c r="K24" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="L24" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="N24" s="91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="31.5" customHeight="1">
+      <c r="J25" s="240"/>
+      <c r="K25" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="N22" s="51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="31.5" customHeight="1">
-      <c r="J23" s="242" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="M23" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="91" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="31.5" customHeight="1">
-      <c r="J24" s="242"/>
-      <c r="K24" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="L24" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="N24" s="91" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="31.5" customHeight="1">
-      <c r="J25" s="242"/>
-      <c r="K25" s="51" t="s">
-        <v>153</v>
-      </c>
       <c r="L25" s="93" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M25" s="93" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N25" s="92" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="28.5" customHeight="1">
       <c r="J26" s="65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="28.5" customHeight="1">
       <c r="J27" s="65" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="41.25" customHeight="1"/>
@@ -4127,17 +4088,6 @@
     <row r="90" ht="41.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
@@ -4145,6 +4095,17 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J21:K22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -4173,43 +4134,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="52.5" customHeight="1">
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="73"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="217" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
+      <c r="B3" s="212" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="4" spans="2:7" ht="14.25">
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
     </row>
     <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
     </row>
     <row r="6" spans="2:7" ht="6.95" customHeight="1">
       <c r="B6" s="6"/>
@@ -4223,12 +4184,12 @@
       <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
+      <c r="C7" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
       <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:7" ht="6.95" customHeight="1">
@@ -4243,12 +4204,12 @@
       <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
+      <c r="C9" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
       <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:7" ht="6.95" customHeight="1">
@@ -4263,12 +4224,12 @@
       <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
+      <c r="C11" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
       <c r="G11" s="39"/>
     </row>
     <row r="12" spans="2:7" ht="6.95" customHeight="1">
@@ -4280,72 +4241,72 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="180" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="182"/>
+      <c r="B13" s="183" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="185"/>
     </row>
     <row r="14" spans="2:7" s="41" customFormat="1" ht="34.5" customHeight="1">
       <c r="B14" s="75" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="257" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="230"/>
+        <v>156</v>
+      </c>
+      <c r="F14" s="254" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="223"/>
     </row>
     <row r="15" spans="2:7" s="41" customFormat="1" ht="41.25" customHeight="1">
       <c r="B15" s="110"/>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
       <c r="E15" s="94"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
     </row>
     <row r="16" spans="2:7" s="65" customFormat="1" ht="46.5" customHeight="1">
       <c r="B16" s="94"/>
       <c r="C16" s="94"/>
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
     </row>
     <row r="17" spans="2:7" s="65" customFormat="1" ht="41.25" customHeight="1">
       <c r="B17" s="94"/>
       <c r="C17" s="94"/>
       <c r="D17" s="94"/>
       <c r="E17" s="94"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
     </row>
     <row r="18" spans="2:7" s="65" customFormat="1" ht="49.5" customHeight="1">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="50"/>
       <c r="E18" s="45"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="239"/>
     </row>
     <row r="19" spans="2:7" s="65" customFormat="1" ht="49.5" customHeight="1">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="50"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
     </row>
     <row r="20" spans="2:7" ht="41.25" customHeight="1">
       <c r="B20" s="49"/>
@@ -4484,6 +4445,13 @@
     <row r="120" ht="41.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="F14:G14"/>
@@ -4491,13 +4459,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -4527,338 +4488,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="54" customHeight="1">
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
       <c r="H1" s="52"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="191" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
+      <c r="B3" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="176"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="197"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="176"/>
+        <v>159</v>
+      </c>
+      <c r="C7" s="179"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="197"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
+        <v>160</v>
+      </c>
+      <c r="C8" s="179"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
+        <v>161</v>
+      </c>
+      <c r="C9" s="179"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="197"/>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="175"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="185"/>
+    </row>
+    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1">
+      <c r="B12" s="179"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="197"/>
+    </row>
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="183" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="185"/>
+    </row>
+    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="179"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="197"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="183" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="185"/>
+    </row>
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="108" t="s">
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-    </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="180" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="179" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="179" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="179" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="182"/>
-    </row>
-    <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1">
-      <c r="B12" s="160"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="176"/>
-    </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="180" t="s">
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="183" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="182"/>
-    </row>
-    <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1">
-      <c r="B14" s="160"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
-    </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="180" t="s">
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="185"/>
+    </row>
+    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="193" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="194"/>
+      <c r="D23" s="193" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="182"/>
-    </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="183" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="160" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="160" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="180" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="182"/>
-    </row>
-    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="183" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="183" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="184"/>
+      <c r="E23" s="194"/>
       <c r="F23" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="176"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="173"/>
+      <c r="B24" s="179" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="197"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="177"/>
       <c r="F24" s="109"/>
       <c r="G24" s="109"/>
     </row>
     <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="176"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="173"/>
+      <c r="B25" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="197"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="177"/>
       <c r="F25" s="109"/>
       <c r="G25" s="109"/>
     </row>
     <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="173"/>
+      <c r="B26" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="197"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="177"/>
       <c r="F26" s="109"/>
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="180" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="182"/>
+      <c r="B27" s="183" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="185"/>
     </row>
     <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="183" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="206"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="184"/>
+      <c r="B28" s="193" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="194"/>
       <c r="F28" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
+      <c r="B29" s="179" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="197"/>
       <c r="F29" s="109"/>
       <c r="G29" s="109"/>
     </row>
     <row r="30" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
+      <c r="B30" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197"/>
       <c r="F30" s="109"/>
       <c r="G30" s="109"/>
     </row>
     <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
+      <c r="B31" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
       <c r="F31" s="109"/>
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B32" s="180" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="182"/>
+      <c r="B32" s="183" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="185"/>
     </row>
     <row r="33" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B33" s="160"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="176"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="197"/>
     </row>
     <row r="34" spans="2:7">
       <c r="C34" s="1"/>
@@ -4868,6 +4829,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C7:G7"/>
@@ -4884,28 +4867,6 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4935,143 +4896,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="62.25" customHeight="1">
-      <c r="B1" s="189"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
       <c r="F1" s="52"/>
     </row>
     <row r="2" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
+      <c r="B3" s="182" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="160" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="176"/>
+      <c r="B6" s="179" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="197"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="197"/>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="176"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="197"/>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="176"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="197"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="176"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="197"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="160" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="173"/>
+      <c r="B10" s="179" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="197"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="177"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
+      <c r="B11" s="168" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
     </row>
     <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1">
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
+      <c r="B13" s="168" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
     </row>
     <row r="14" spans="2:6" ht="69.75" customHeight="1">
-      <c r="B14" s="216"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
+      <c r="B15" s="168" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
+      <c r="B16" s="179" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
+      <c r="B17" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
+      <c r="B18" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B1:E1"/>
@@ -5088,13 +5056,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5125,34 +5086,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="62.25" customHeight="1">
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
     </row>
     <row r="2" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="191" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
+      <c r="B3" s="182" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="271"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
     </row>
     <row r="5" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="261" t="s">
@@ -5167,32 +5128,32 @@
       <c r="B6" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
     </row>
     <row r="7" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
+        <v>160</v>
+      </c>
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
     </row>
     <row r="8" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+        <v>181</v>
+      </c>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
     </row>
     <row r="9" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="261" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C9" s="261"/>
       <c r="D9" s="261"/>
@@ -5203,41 +5164,41 @@
       <c r="B10" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="258"/>
     </row>
     <row r="11" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="258"/>
     </row>
     <row r="12" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
+        <v>183</v>
+      </c>
+      <c r="C12" s="258"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="258"/>
+      <c r="F12" s="258"/>
     </row>
     <row r="13" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="267"/>
-      <c r="D13" s="267"/>
-      <c r="E13" s="267"/>
-      <c r="F13" s="267"/>
+        <v>184</v>
+      </c>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
     </row>
     <row r="14" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="261" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C14" s="261"/>
       <c r="D14" s="261"/>
@@ -5246,40 +5207,40 @@
     </row>
     <row r="15" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="112" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="262" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
+        <v>187</v>
+      </c>
+      <c r="D15" s="264" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="264"/>
+      <c r="F15" s="264"/>
     </row>
     <row r="16" spans="2:6" s="28" customFormat="1" ht="28.5" customHeight="1">
       <c r="B16" s="111" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C16" s="113"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
+      <c r="D16" s="265"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="265"/>
     </row>
     <row r="17" spans="2:11" s="28" customFormat="1" ht="28.5" customHeight="1">
       <c r="B17" s="111" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C17" s="113"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
       <c r="J17" s="114"/>
       <c r="K17" s="114"/>
     </row>
     <row r="18" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="261" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C18" s="261"/>
       <c r="D18" s="261"/>
@@ -5287,53 +5248,53 @@
       <c r="F18" s="261"/>
     </row>
     <row r="19" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="264" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
+      <c r="B19" s="267" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
     </row>
     <row r="20" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="264" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="264"/>
+      <c r="B20" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="267"/>
+      <c r="D20" s="267"/>
+      <c r="E20" s="267"/>
+      <c r="F20" s="267"/>
     </row>
     <row r="21" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="264" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="264"/>
-      <c r="D21" s="264"/>
-      <c r="E21" s="264"/>
-      <c r="F21" s="264"/>
+      <c r="B21" s="267" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="267"/>
+      <c r="D21" s="267"/>
+      <c r="E21" s="267"/>
+      <c r="F21" s="267"/>
     </row>
     <row r="22" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="264" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="264"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="264"/>
-      <c r="F22" s="264"/>
+      <c r="B22" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="267"/>
+      <c r="D22" s="267"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="267"/>
     </row>
     <row r="23" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="264" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="264"/>
-      <c r="D23" s="264"/>
-      <c r="E23" s="264"/>
-      <c r="F23" s="264"/>
+      <c r="B23" s="267" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="267"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="267"/>
+      <c r="F23" s="267"/>
     </row>
     <row r="24" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="261" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C24" s="261"/>
       <c r="D24" s="261"/>
@@ -5341,66 +5302,66 @@
       <c r="F24" s="261"/>
     </row>
     <row r="25" spans="2:11" s="28" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B25" s="262" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="262"/>
-      <c r="D25" s="262"/>
+      <c r="B25" s="264" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="264"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="112" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="264" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="264"/>
-      <c r="D26" s="264"/>
+      <c r="B26" s="267" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="267"/>
+      <c r="D26" s="267"/>
       <c r="E26" s="112"/>
       <c r="F26" s="112"/>
     </row>
     <row r="27" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="264" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="264"/>
-      <c r="D27" s="264"/>
+      <c r="B27" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="267"/>
+      <c r="D27" s="267"/>
       <c r="E27" s="112"/>
       <c r="F27" s="112"/>
     </row>
     <row r="28" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="264" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="264"/>
-      <c r="D28" s="264"/>
+      <c r="B28" s="267" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="267"/>
+      <c r="D28" s="267"/>
       <c r="E28" s="112"/>
       <c r="F28" s="112"/>
     </row>
     <row r="29" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="264" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="264"/>
-      <c r="D29" s="264"/>
+      <c r="B29" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="267"/>
+      <c r="D29" s="267"/>
       <c r="E29" s="112"/>
       <c r="F29" s="112"/>
     </row>
     <row r="30" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="264" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="264"/>
-      <c r="D30" s="264"/>
+      <c r="B30" s="267" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
       <c r="E30" s="112"/>
       <c r="F30" s="112"/>
     </row>
     <row r="31" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="261" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C31" s="261"/>
       <c r="D31" s="261"/>
@@ -5408,50 +5369,50 @@
       <c r="F31" s="261"/>
     </row>
     <row r="32" spans="2:11" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="262" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="262"/>
+      <c r="B32" s="264" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="264"/>
       <c r="D32" s="112" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E32" s="112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F32" s="112" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="264" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="264"/>
+      <c r="B33" s="267" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="267"/>
       <c r="D33" s="111"/>
       <c r="E33" s="115"/>
       <c r="F33" s="116"/>
     </row>
     <row r="34" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="264" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="264"/>
+      <c r="B34" s="267" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="267"/>
       <c r="D34" s="111"/>
       <c r="E34" s="115"/>
       <c r="F34" s="115"/>
     </row>
     <row r="35" spans="2:6" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="264" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="264"/>
+      <c r="B35" s="267" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="267"/>
       <c r="D35" s="111"/>
       <c r="E35" s="115"/>
       <c r="F35" s="115"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="261" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C36" s="261"/>
       <c r="D36" s="261"/>
@@ -5459,20 +5420,33 @@
       <c r="F36" s="261"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1">
-      <c r="B37" s="263"/>
-      <c r="C37" s="263"/>
-      <c r="D37" s="263"/>
-      <c r="E37" s="263"/>
-      <c r="F37" s="263"/>
+      <c r="B37" s="268"/>
+      <c r="C37" s="268"/>
+      <c r="D37" s="268"/>
+      <c r="E37" s="268"/>
+      <c r="F37" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
@@ -5485,25 +5459,12 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -5547,13 +5508,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="53.25" customHeight="1">
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
@@ -5567,15 +5528,15 @@
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:54" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="191" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
+      <c r="B3" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
@@ -5590,85 +5551,85 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="2:54" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="281" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="282" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="279" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="278" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="275" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="276"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="280" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
+      <c r="B5" s="270" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="271" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="272" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="279" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="276" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="277"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="269" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="269"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
       <c r="N5" s="119"/>
       <c r="O5" s="119" t="s">
-        <v>209</v>
-      </c>
-      <c r="P5" s="277" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="280" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD5" s="280"/>
-      <c r="AE5" s="280"/>
-      <c r="AF5" s="280"/>
-      <c r="AG5" s="280"/>
-      <c r="AH5" s="280"/>
-      <c r="AI5" s="280"/>
-      <c r="AJ5" s="280"/>
-      <c r="AK5" s="280"/>
-      <c r="AL5" s="280"/>
-      <c r="AM5" s="280"/>
-      <c r="AN5" s="280"/>
-      <c r="AO5" s="280"/>
-      <c r="AP5" s="280" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ5" s="280"/>
-      <c r="AR5" s="280"/>
-      <c r="AS5" s="280"/>
-      <c r="AT5" s="280"/>
-      <c r="AU5" s="280"/>
-      <c r="AV5" s="280"/>
-      <c r="AW5" s="280"/>
-      <c r="AX5" s="280"/>
-      <c r="AY5" s="280"/>
-      <c r="AZ5" s="280"/>
-      <c r="BA5" s="280"/>
-      <c r="BB5" s="280"/>
+        <v>204</v>
+      </c>
+      <c r="P5" s="278" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="278"/>
+      <c r="R5" s="278"/>
+      <c r="S5" s="278"/>
+      <c r="T5" s="278"/>
+      <c r="U5" s="278"/>
+      <c r="V5" s="278"/>
+      <c r="W5" s="278"/>
+      <c r="X5" s="278"/>
+      <c r="Y5" s="278"/>
+      <c r="Z5" s="278"/>
+      <c r="AA5" s="278"/>
+      <c r="AB5" s="278"/>
+      <c r="AC5" s="269" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD5" s="269"/>
+      <c r="AE5" s="269"/>
+      <c r="AF5" s="269"/>
+      <c r="AG5" s="269"/>
+      <c r="AH5" s="269"/>
+      <c r="AI5" s="269"/>
+      <c r="AJ5" s="269"/>
+      <c r="AK5" s="269"/>
+      <c r="AL5" s="269"/>
+      <c r="AM5" s="269"/>
+      <c r="AN5" s="269"/>
+      <c r="AO5" s="269"/>
+      <c r="AP5" s="269" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ5" s="269"/>
+      <c r="AR5" s="269"/>
+      <c r="AS5" s="269"/>
+      <c r="AT5" s="269"/>
+      <c r="AU5" s="269"/>
+      <c r="AV5" s="269"/>
+      <c r="AW5" s="269"/>
+      <c r="AX5" s="269"/>
+      <c r="AY5" s="269"/>
+      <c r="AZ5" s="269"/>
+      <c r="BA5" s="269"/>
+      <c r="BB5" s="269"/>
     </row>
     <row r="6" spans="2:54" ht="33" customHeight="1">
-      <c r="B6" s="281"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
       <c r="F6" s="120">
         <v>2013</v>
       </c>
@@ -5679,146 +5640,146 @@
         <v>2015</v>
       </c>
       <c r="I6" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="M6" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="J6" s="118" t="s">
+      <c r="P6" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="K6" s="118" t="s">
+      <c r="Q6" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="R6" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="118" t="s">
+      <c r="S6" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="118" t="s">
+      <c r="T6" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="120" t="s">
+      <c r="U6" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="Q6" s="120" t="s">
+      <c r="V6" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="R6" s="120" t="s">
+      <c r="W6" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="S6" s="120" t="s">
+      <c r="X6" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="T6" s="120" t="s">
+      <c r="Y6" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="U6" s="120" t="s">
+      <c r="Z6" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="V6" s="120" t="s">
+      <c r="AA6" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="W6" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="X6" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y6" s="120" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z6" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA6" s="120" t="s">
-        <v>230</v>
-      </c>
       <c r="AB6" s="120" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD6" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE6" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF6" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG6" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="AC6" s="120" t="s">
+      <c r="AH6" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="AD6" s="120" t="s">
+      <c r="AI6" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="AE6" s="120" t="s">
+      <c r="AJ6" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="AF6" s="120" t="s">
+      <c r="AK6" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="AG6" s="120" t="s">
+      <c r="AL6" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="AH6" s="120" t="s">
+      <c r="AM6" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="AI6" s="120" t="s">
+      <c r="AN6" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="AJ6" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK6" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL6" s="120" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM6" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN6" s="120" t="s">
-        <v>230</v>
-      </c>
       <c r="AO6" s="120" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP6" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ6" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR6" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS6" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT6" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="AP6" s="120" t="s">
+      <c r="AU6" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="AQ6" s="120" t="s">
+      <c r="AV6" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="AR6" s="120" t="s">
+      <c r="AW6" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="AS6" s="120" t="s">
+      <c r="AX6" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="AT6" s="120" t="s">
+      <c r="AY6" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="AU6" s="120" t="s">
+      <c r="AZ6" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="AV6" s="120" t="s">
+      <c r="BA6" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="AW6" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="AX6" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY6" s="120" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ6" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA6" s="120" t="s">
-        <v>230</v>
-      </c>
       <c r="BB6" s="120" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:54" ht="51" customHeight="1">
-      <c r="B7" s="272"/>
+      <c r="B7" s="273"/>
       <c r="C7" s="121"/>
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
@@ -5873,7 +5834,7 @@
       <c r="BB7" s="112"/>
     </row>
     <row r="8" spans="2:54" ht="51" customHeight="1">
-      <c r="B8" s="273"/>
+      <c r="B8" s="274"/>
       <c r="C8" s="123"/>
       <c r="D8" s="111"/>
       <c r="E8" s="111"/>
@@ -5928,7 +5889,7 @@
       <c r="BB8" s="124"/>
     </row>
     <row r="9" spans="2:54" ht="51" customHeight="1">
-      <c r="B9" s="274"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="123"/>
       <c r="D9" s="111"/>
       <c r="E9" s="111"/>
@@ -5999,16 +5960,16 @@
     </row>
     <row r="14" spans="2:54" ht="15" customHeight="1">
       <c r="B14" s="130" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D14" s="131" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
@@ -6017,11 +5978,11 @@
     <row r="15" spans="2:54" ht="15">
       <c r="B15" s="132"/>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D15" s="131"/>
       <c r="E15" s="133" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F15" s="1"/>
       <c r="H15" s="134"/>
@@ -6033,7 +5994,7 @@
     <row r="16" spans="2:54" ht="15">
       <c r="B16" s="132"/>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D16" s="131"/>
       <c r="E16" s="135"/>
@@ -6046,7 +6007,7 @@
     <row r="17" spans="2:12" ht="15">
       <c r="B17" s="132"/>
       <c r="C17" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D17" s="131"/>
       <c r="E17" s="135"/>
@@ -6068,16 +6029,16 @@
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
       <c r="B19" s="137" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D19" s="138" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
@@ -6086,10 +6047,10 @@
     <row r="20" spans="2:12" ht="15">
       <c r="B20" s="130"/>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="1"/>
@@ -6098,7 +6059,7 @@
     <row r="21" spans="2:12" ht="15">
       <c r="B21" s="130"/>
       <c r="E21" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="1"/>
@@ -6115,6 +6076,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="P5:AB5"/>
     <mergeCell ref="AC5:AO5"/>
     <mergeCell ref="AP5:BB5"/>
     <mergeCell ref="B1:H1"/>
@@ -6122,11 +6088,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="P5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -6160,49 +6121,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="62.25" customHeight="1">
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="2:10" ht="18.75" customHeight="1">
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
     </row>
     <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="191" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
+      <c r="B3" s="182" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
     </row>
     <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
     </row>
     <row r="5" spans="2:10" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="2:10" ht="6.95" customHeight="1">
       <c r="B6" s="22"/>
@@ -6215,16 +6176,16 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="281"/>
+      <c r="E7" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
       <c r="H7" s="39"/>
       <c r="J7" s="19"/>
     </row>
@@ -6239,16 +6200,16 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="168"/>
-      <c r="D9" s="283"/>
-      <c r="E9" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="187"/>
-      <c r="G9" s="188"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="39"/>
       <c r="J9" s="19"/>
     </row>
@@ -6263,16 +6224,16 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="187"/>
-      <c r="G11" s="188"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="281"/>
+      <c r="E11" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="166"/>
+      <c r="G11" s="167"/>
       <c r="H11" s="39"/>
       <c r="J11" s="19"/>
     </row>
@@ -6286,16 +6247,16 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="200" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="187"/>
-      <c r="G13" s="188"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="281"/>
+      <c r="E13" s="172" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167"/>
       <c r="H13" s="39"/>
       <c r="J13" s="19"/>
     </row>
@@ -6310,16 +6271,16 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="283"/>
-      <c r="E15" s="200" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="188"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="281"/>
+      <c r="E15" s="172" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="166"/>
+      <c r="G15" s="167"/>
       <c r="H15" s="39"/>
       <c r="J15" s="19"/>
     </row>
@@ -6334,16 +6295,16 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="167" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="200" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="187"/>
-      <c r="G17" s="188"/>
+      <c r="B17" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="174"/>
+      <c r="D17" s="281"/>
+      <c r="E17" s="172" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="166"/>
+      <c r="G17" s="167"/>
       <c r="H17" s="39"/>
       <c r="J17" s="19"/>
     </row>
@@ -6357,16 +6318,16 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="167" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="168"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="200" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="187"/>
-      <c r="G19" s="188"/>
+      <c r="B19" s="173" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="174"/>
+      <c r="D19" s="281"/>
+      <c r="E19" s="172" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="166"/>
+      <c r="G19" s="167"/>
       <c r="H19" s="39"/>
       <c r="J19" s="19"/>
     </row>
@@ -6382,7 +6343,7 @@
     </row>
     <row r="21" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="202" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C21" s="202"/>
       <c r="D21" s="202"/>
@@ -6405,19 +6366,19 @@
       <c r="B23" s="16"/>
       <c r="C23" s="87"/>
       <c r="D23" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="39"/>
-      <c r="J23" s="291"/>
-      <c r="K23" s="291"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="291"/>
-      <c r="N23" s="291"/>
-      <c r="O23" s="291"/>
-      <c r="P23" s="291"/>
-      <c r="Q23" s="291"/>
+      <c r="J23" s="280"/>
+      <c r="K23" s="280"/>
+      <c r="L23" s="280"/>
+      <c r="M23" s="280"/>
+      <c r="N23" s="280"/>
+      <c r="O23" s="280"/>
+      <c r="P23" s="280"/>
+      <c r="Q23" s="280"/>
     </row>
     <row r="24" spans="2:17" ht="7.5" customHeight="1">
       <c r="B24" s="6"/>
@@ -6427,35 +6388,35 @@
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
       <c r="H24" s="85"/>
-      <c r="J24" s="291"/>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="291"/>
-      <c r="O24" s="291"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="291"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="280"/>
+      <c r="Q24" s="280"/>
     </row>
     <row r="25" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="79"/>
       <c r="D25" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F25" s="284"/>
       <c r="G25" s="285"/>
       <c r="H25" s="39"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="291"/>
-      <c r="M25" s="291"/>
-      <c r="N25" s="291"/>
-      <c r="O25" s="291"/>
-      <c r="P25" s="291"/>
-      <c r="Q25" s="291"/>
+      <c r="J25" s="280"/>
+      <c r="K25" s="280"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="280"/>
+      <c r="N25" s="280"/>
+      <c r="O25" s="280"/>
+      <c r="P25" s="280"/>
+      <c r="Q25" s="280"/>
     </row>
     <row r="26" spans="2:17" ht="7.5" customHeight="1">
       <c r="B26" s="6"/>
@@ -6465,35 +6426,35 @@
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
       <c r="H26" s="85"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="193"/>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="187"/>
+      <c r="Q26" s="187"/>
     </row>
     <row r="27" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="79"/>
       <c r="D27" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F27" s="284"/>
       <c r="G27" s="285"/>
       <c r="H27" s="39"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="193"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="187"/>
+      <c r="Q27" s="187"/>
     </row>
     <row r="28" spans="2:17" ht="7.5" customHeight="1">
       <c r="B28" s="24"/>
@@ -6505,176 +6466,176 @@
       <c r="H28" s="145"/>
     </row>
     <row r="29" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="168" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+    </row>
+    <row r="30" spans="2:17" ht="39.950000000000003" customHeight="1">
+      <c r="B30" s="210" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="210"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+    </row>
+    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="168" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+    </row>
+    <row r="32" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="286" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="287"/>
+      <c r="D32" s="287"/>
+      <c r="E32" s="287"/>
+      <c r="F32" s="287"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="288"/>
+    </row>
+    <row r="33" spans="2:9" ht="81" customHeight="1">
+      <c r="B33" s="210" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210"/>
+    </row>
+    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="282" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-    </row>
-    <row r="30" spans="2:17" ht="39.950000000000003" customHeight="1">
-      <c r="B30" s="213" t="s">
+      <c r="C34" s="282"/>
+      <c r="D34" s="282"/>
+      <c r="E34" s="282"/>
+      <c r="F34" s="282"/>
+      <c r="G34" s="282"/>
+      <c r="H34" s="282"/>
+    </row>
+    <row r="35" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B35" s="210" t="s">
         <v>257</v>
       </c>
-      <c r="C30" s="213"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-    </row>
-    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="185" t="s">
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+    </row>
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="168" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-    </row>
-    <row r="32" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="288" t="s">
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+    </row>
+    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="282" t="s">
         <v>259</v>
       </c>
-      <c r="C32" s="289"/>
-      <c r="D32" s="289"/>
-      <c r="E32" s="289"/>
-      <c r="F32" s="289"/>
-      <c r="G32" s="289"/>
-      <c r="H32" s="290"/>
-    </row>
-    <row r="33" spans="2:9" ht="81" customHeight="1">
-      <c r="B33" s="213" t="s">
+      <c r="C37" s="282"/>
+      <c r="D37" s="282"/>
+      <c r="E37" s="282"/>
+      <c r="F37" s="282"/>
+      <c r="G37" s="282"/>
+      <c r="H37" s="282"/>
+    </row>
+    <row r="38" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B38" s="283"/>
+      <c r="C38" s="283"/>
+      <c r="D38" s="283"/>
+      <c r="E38" s="283"/>
+      <c r="F38" s="283"/>
+      <c r="G38" s="283"/>
+      <c r="H38" s="283"/>
+    </row>
+    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="282" t="s">
         <v>260</v>
       </c>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-    </row>
-    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="287" t="s">
+      <c r="C39" s="282"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
+      <c r="H39" s="282"/>
+    </row>
+    <row r="40" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B40" s="283"/>
+      <c r="C40" s="283"/>
+      <c r="D40" s="283"/>
+      <c r="E40" s="283"/>
+      <c r="F40" s="283"/>
+      <c r="G40" s="283"/>
+      <c r="H40" s="283"/>
+    </row>
+    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="168" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="287"/>
-      <c r="F34" s="287"/>
-      <c r="G34" s="287"/>
-      <c r="H34" s="287"/>
-    </row>
-    <row r="35" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B35" s="213" t="s">
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+    </row>
+    <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B42" s="283"/>
+      <c r="C42" s="283"/>
+      <c r="D42" s="283"/>
+      <c r="E42" s="283"/>
+      <c r="F42" s="283"/>
+      <c r="G42" s="283"/>
+      <c r="H42" s="283"/>
+    </row>
+    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="213"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-    </row>
-    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="185" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-    </row>
-    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="287" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" s="287"/>
-      <c r="D37" s="287"/>
-      <c r="E37" s="287"/>
-      <c r="F37" s="287"/>
-      <c r="G37" s="287"/>
-      <c r="H37" s="287"/>
-    </row>
-    <row r="38" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B38" s="286"/>
-      <c r="C38" s="286"/>
-      <c r="D38" s="286"/>
-      <c r="E38" s="286"/>
-      <c r="F38" s="286"/>
-      <c r="G38" s="286"/>
-      <c r="H38" s="286"/>
-    </row>
-    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="287" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="287"/>
-      <c r="F39" s="287"/>
-      <c r="G39" s="287"/>
-      <c r="H39" s="287"/>
-    </row>
-    <row r="40" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B40" s="286"/>
-      <c r="C40" s="286"/>
-      <c r="D40" s="286"/>
-      <c r="E40" s="286"/>
-      <c r="F40" s="286"/>
-      <c r="G40" s="286"/>
-      <c r="H40" s="286"/>
-    </row>
-    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="185" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-    </row>
-    <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B42" s="286"/>
-      <c r="C42" s="286"/>
-      <c r="D42" s="286"/>
-      <c r="E42" s="286"/>
-      <c r="F42" s="286"/>
-      <c r="G42" s="286"/>
-      <c r="H42" s="286"/>
-    </row>
-    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="180" t="s">
-        <v>267</v>
-      </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="181"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
     </row>
     <row r="44" spans="2:9" ht="20.100000000000001" hidden="1" customHeight="1">
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="195" t="s">
+      <c r="C44" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="195"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="189"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="189"/>
+      <c r="H44" s="189"/>
     </row>
     <row r="45" spans="2:9" ht="6.95" customHeight="1">
       <c r="B45" s="22"/>
@@ -6688,11 +6649,11 @@
     </row>
     <row r="46" spans="2:9" ht="19.5" customHeight="1">
       <c r="B46" s="6"/>
-      <c r="C46" s="163" t="s">
-        <v>268</v>
-      </c>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
+      <c r="C46" s="178" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
       <c r="F46" s="105" t="s">
         <v>32</v>
       </c>
@@ -6703,11 +6664,11 @@
     </row>
     <row r="47" spans="2:9" ht="27" customHeight="1">
       <c r="B47" s="6"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
       <c r="F47" s="106" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G47" s="105"/>
       <c r="H47" s="5"/>
@@ -6723,17 +6684,17 @@
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="185" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="185" t="s">
+      <c r="B49" s="168" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="185"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
     </row>
     <row r="50" spans="2:9" ht="6.95" customHeight="1">
       <c r="B50" s="22"/>
@@ -6747,11 +6708,11 @@
     </row>
     <row r="51" spans="2:9" ht="33.75" customHeight="1">
       <c r="B51" s="6"/>
-      <c r="C51" s="183" t="s">
-        <v>271</v>
-      </c>
-      <c r="D51" s="206"/>
-      <c r="E51" s="184"/>
+      <c r="C51" s="193" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="204"/>
+      <c r="E51" s="194"/>
       <c r="F51" s="105" t="s">
         <v>32</v>
       </c>
@@ -6762,11 +6723,11 @@
     </row>
     <row r="52" spans="2:9" ht="27" customHeight="1">
       <c r="B52" s="6"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
-      <c r="E52" s="169"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="191"/>
       <c r="F52" s="106" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G52" s="107"/>
       <c r="H52" s="5"/>
@@ -6793,22 +6754,22 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="F25:G25"/>
@@ -6825,22 +6786,22 @@
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6861,7 +6822,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -6879,62 +6840,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="62.25" customHeight="1">
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="182"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="185"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="2:10" ht="6.95" customHeight="1">
@@ -6949,17 +6910,17 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="174" t="s">
+      <c r="C7" s="174"/>
+      <c r="D7" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="205"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="200"/>
       <c r="I7" s="5"/>
       <c r="J7" s="19"/>
     </row>
@@ -6975,17 +6936,17 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="168"/>
-      <c r="D9" s="174" t="s">
+      <c r="C9" s="174"/>
+      <c r="D9" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="5"/>
       <c r="J9" s="19"/>
     </row>
@@ -7001,18 +6962,18 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="174" t="str">
+      <c r="C11" s="174"/>
+      <c r="D11" s="160" t="str">
         <f>'1 e 2TAP'!D9:H9</f>
-        <v>BuscaShop</v>
-      </c>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="205"/>
+        <v>MeuCardápio</v>
+      </c>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="200"/>
       <c r="I11" s="5"/>
       <c r="J11" s="19"/>
     </row>
@@ -7039,11 +7000,11 @@
       <c r="I13" s="203"/>
     </row>
     <row r="14" spans="2:10" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="206"/>
-      <c r="D14" s="184"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="194"/>
       <c r="E14" s="29" t="s">
         <v>44</v>
       </c>
@@ -7053,90 +7014,70 @@
       <c r="G14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="183" t="s">
+      <c r="H14" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="184"/>
+      <c r="I14" s="194"/>
     </row>
     <row r="15" spans="2:10" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="155" t="s">
+      <c r="G15" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="183" t="s">
+      <c r="H15" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="184"/>
+      <c r="I15" s="194"/>
     </row>
     <row r="16" spans="2:10" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B16" s="207" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="154" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="184"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="2:9" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B17" s="207" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="154" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="184"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="194"/>
     </row>
     <row r="18" spans="2:9" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B18" s="207"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="207"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="184"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="194"/>
     </row>
     <row r="19" spans="2:9" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B19" s="207"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="184"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
     </row>
     <row r="20" spans="2:9" s="28" customFormat="1" ht="24.75" customHeight="1">
       <c r="H20" s="4"/>
@@ -7200,6 +7141,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H15:I15"/>
@@ -7210,29 +7165,14 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G15" r:id="rId1" xr:uid="{99C186E5-B14E-448D-A3B0-27D9717F9FA4}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{1B0D64BD-2B21-4EEB-8325-1CD5AA687863}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.35433070866141736" top="0.55118110236220474" bottom="0.62992125984251968" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7245,7 +7185,7 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E11"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -7259,23 +7199,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="56.25" customHeight="1">
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
     </row>
     <row r="2" spans="2:7" ht="18.75" customHeight="1">
       <c r="E2" s="97"/>
     </row>
     <row r="3" spans="2:7" ht="26.25" customHeight="1">
-      <c r="B3" s="211" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
+      <c r="B3" s="208" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
     </row>
     <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="95"/>
@@ -7284,13 +7224,13 @@
       <c r="E4" s="97"/>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="182"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="6.95" customHeight="1">
@@ -7305,11 +7245,11 @@
       <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="174" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="188"/>
+      <c r="C7" s="160" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="166"/>
+      <c r="E7" s="167"/>
       <c r="F7" s="5"/>
       <c r="G7" s="19"/>
     </row>
@@ -7324,11 +7264,11 @@
       <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
       <c r="F9" s="5"/>
       <c r="G9" s="19"/>
     </row>
@@ -7343,11 +7283,11 @@
       <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="188"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="167"/>
       <c r="F11" s="5"/>
       <c r="G11" s="19"/>
     </row>
@@ -7359,70 +7299,70 @@
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B13" s="180" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="182"/>
+      <c r="B13" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="185"/>
     </row>
     <row r="14" spans="2:7" ht="51.75" customHeight="1">
       <c r="B14" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="208" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="209"/>
+      <c r="F14" s="206"/>
     </row>
     <row r="15" spans="2:7" ht="61.5" customHeight="1">
       <c r="B15" s="94"/>
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
     </row>
     <row r="16" spans="2:7" ht="61.5" customHeight="1">
       <c r="B16" s="94"/>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
     </row>
     <row r="17" spans="2:6" ht="61.5" customHeight="1">
       <c r="B17" s="94"/>
       <c r="C17" s="33"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
     </row>
     <row r="18" spans="2:6" ht="61.5" customHeight="1">
       <c r="B18" s="94"/>
       <c r="C18" s="33"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
     </row>
     <row r="19" spans="2:6" ht="61.5" customHeight="1">
       <c r="B19" s="94"/>
       <c r="C19" s="27"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
     </row>
     <row r="20" spans="2:6" ht="61.5" customHeight="1">
       <c r="B20" s="94"/>
       <c r="C20" s="27"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="198"/>
     </row>
     <row r="21" spans="2:6" ht="23.25" customHeight="1">
       <c r="B21" s="100"/>
@@ -7476,8 +7416,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="56.25" customHeight="1">
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
@@ -7486,21 +7426,21 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="B3" s="211" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="211"/>
+      <c r="B3" s="208" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="208"/>
       <c r="D3" s="36"/>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1"/>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
     </row>
     <row r="6" spans="1:5" ht="6.95" customHeight="1">
       <c r="A6" s="1"/>
@@ -7519,7 +7459,7 @@
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="153" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="39"/>
@@ -7530,11 +7470,11 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1">
-      <c r="B10" s="180" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
     </row>
     <row r="11" spans="1:5" ht="39.75" customHeight="1">
       <c r="B11" s="82"/>
@@ -7596,8 +7536,8 @@
   </sheetPr>
   <dimension ref="B1:H146"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7612,44 +7552,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="52.5" customHeight="1">
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1">
-      <c r="B3" s="217" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
+      <c r="B3" s="212" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="2:8" ht="14.25">
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="2:8" ht="6.95" customHeight="1">
       <c r="B6" s="6"/>
@@ -7673,13 +7613,13 @@
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="200"/>
       <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:8" ht="6.95" customHeight="1">
@@ -7692,241 +7632,241 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+    </row>
+    <row r="11" spans="2:8" s="52" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B11" s="216" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="216" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
-    </row>
-    <row r="11" spans="2:8" s="52" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B11" s="215" t="s">
+      <c r="F11" s="216"/>
+      <c r="G11" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215" t="s">
+      <c r="H11" s="216"/>
+    </row>
+    <row r="12" spans="2:8" s="52" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B12" s="216"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="215" t="s">
+      <c r="F12" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215" t="s">
+      <c r="G12" s="216"/>
+      <c r="H12" s="216"/>
+    </row>
+    <row r="13" spans="2:8" s="52" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B13" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="215"/>
-    </row>
-    <row r="12" spans="2:8" s="52" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="215"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="30" t="s">
+      <c r="C13" s="214"/>
+      <c r="D13" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="E13" s="154">
+        <v>45945</v>
+      </c>
+      <c r="F13" s="155">
+        <v>45973</v>
+      </c>
+      <c r="G13" s="198" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="198"/>
+    </row>
+    <row r="14" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B14" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="215"/>
-      <c r="H12" s="215"/>
-    </row>
-    <row r="13" spans="2:8" s="52" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B13" s="216" t="s">
+      <c r="C14" s="214"/>
+      <c r="D14" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="154">
+        <v>45945</v>
+      </c>
+      <c r="F14" s="155">
+        <v>45974</v>
+      </c>
+      <c r="G14" s="198" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="198"/>
+    </row>
+    <row r="15" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B15" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="216"/>
-      <c r="D13" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="151">
-        <v>45901</v>
-      </c>
-      <c r="F13" s="152">
-        <v>45908</v>
-      </c>
-      <c r="G13" s="207" t="s">
+      <c r="C15" s="214"/>
+      <c r="D15" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="154">
+        <v>45945</v>
+      </c>
+      <c r="F15" s="155">
+        <v>45973</v>
+      </c>
+      <c r="G15" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="207"/>
-    </row>
-    <row r="14" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B14" s="216" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="216"/>
-      <c r="D14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="157">
-        <v>45901</v>
-      </c>
-      <c r="F14" s="158">
-        <v>45915</v>
-      </c>
-      <c r="G14" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="207"/>
-    </row>
-    <row r="15" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B15" s="216" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="216"/>
-      <c r="D15" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="157">
-        <v>45901</v>
-      </c>
-      <c r="F15" s="158">
-        <v>45915</v>
-      </c>
-      <c r="G15" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="207"/>
+      <c r="H15" s="198"/>
     </row>
     <row r="16" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B16" s="216"/>
-      <c r="C16" s="216"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
       <c r="D16" s="33"/>
       <c r="E16" s="27"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
     </row>
     <row r="17" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B17" s="216" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="216"/>
+      <c r="B17" s="214" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="214"/>
       <c r="D17" s="33"/>
       <c r="E17" s="27"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
     </row>
     <row r="18" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B18" s="216" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="216"/>
+      <c r="B18" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="214"/>
       <c r="D18" s="33"/>
       <c r="E18" s="27"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
     </row>
     <row r="19" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
     </row>
     <row r="20" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B20" s="216"/>
-      <c r="C20" s="216"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="198"/>
     </row>
     <row r="21" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B21" s="216"/>
-      <c r="C21" s="216"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="214"/>
       <c r="D21" s="27"/>
       <c r="E21" s="71"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
     </row>
     <row r="22" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
     </row>
     <row r="23" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B23" s="207"/>
-      <c r="C23" s="207"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
     </row>
     <row r="24" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="214"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
     </row>
     <row r="25" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B25" s="216"/>
-      <c r="C25" s="216"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="198"/>
     </row>
     <row r="26" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="198"/>
     </row>
     <row r="27" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
       <c r="D27" s="27"/>
       <c r="E27" s="71"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="198"/>
     </row>
     <row r="28" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
     </row>
     <row r="29" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
     </row>
     <row r="30" spans="2:8" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="214"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
     </row>
     <row r="31" spans="2:8" s="20" customFormat="1" ht="41.25" customHeight="1">
       <c r="B31" s="72"/>
@@ -8150,6 +8090,36 @@
     <row r="146" ht="41.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B19:C19"/>
@@ -8166,36 +8136,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -8215,7 +8155,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -8230,12 +8170,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1">
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
@@ -8248,29 +8188,29 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="B3" s="211" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
+      <c r="B3" s="208" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="36"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1"/>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:9" ht="6.95" customHeight="1">
       <c r="A6" s="1"/>
@@ -8287,13 +8227,13 @@
       <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="212" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
+      <c r="C7" s="160" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="166"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="6.95" customHeight="1">
@@ -8311,13 +8251,13 @@
       <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="6.95" customHeight="1">
@@ -8335,13 +8275,13 @@
       <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
       <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="6.95" customHeight="1">
@@ -8354,69 +8294,69 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="B13" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
+      <c r="B13" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
     </row>
     <row r="14" spans="1:9" ht="39.75" customHeight="1">
       <c r="B14" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="220" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="220"/>
+      <c r="H14" s="217"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
     </row>
     <row r="16" spans="1:9" ht="36" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
     </row>
     <row r="17" spans="2:8" ht="36" customHeight="1">
       <c r="B17" s="27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="38"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
     </row>
     <row r="18" spans="2:8" ht="36" customHeight="1">
       <c r="B18" s="27"/>
@@ -8424,8 +8364,8 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
     </row>
     <row r="19" spans="2:8" ht="36" customHeight="1">
       <c r="B19" s="27"/>
@@ -8433,8 +8373,8 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
     </row>
     <row r="20" spans="2:8" ht="36" customHeight="1">
       <c r="B20" s="27"/>
@@ -8442,8 +8382,8 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="198"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4"/>
@@ -8455,12 +8395,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C7:G7"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B13:H13"/>
@@ -8469,6 +8403,12 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8486,7 +8426,7 @@
   <dimension ref="B1:Y1023"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8500,86 +8440,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="52.5" customHeight="1">
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="221"/>
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="221"/>
     </row>
     <row r="3" spans="2:22" ht="21" customHeight="1">
-      <c r="B3" s="217" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
+      <c r="B3" s="212" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
     </row>
     <row r="4" spans="2:22" ht="14.25">
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
     </row>
     <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
     </row>
     <row r="6" spans="2:22" ht="6.95" customHeight="1">
       <c r="B6" s="22"/>
@@ -8608,27 +8548,27 @@
       <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="188"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="167"/>
       <c r="V7" s="57"/>
     </row>
     <row r="8" spans="2:22" ht="6.95" customHeight="1">
@@ -8658,27 +8598,27 @@
       <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="188"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="167"/>
       <c r="V9" s="57"/>
     </row>
     <row r="10" spans="2:22" ht="6.95" customHeight="1">
@@ -8708,27 +8648,27 @@
       <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="204"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="204"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="204"/>
-      <c r="U11" s="205"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="199"/>
+      <c r="O11" s="199"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="199"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="199"/>
+      <c r="U11" s="200"/>
       <c r="V11" s="57"/>
     </row>
     <row r="12" spans="2:22" ht="6.95" customHeight="1">
@@ -8755,158 +8695,154 @@
       <c r="V12" s="57"/>
     </row>
     <row r="13" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="185"/>
+    </row>
+    <row r="14" spans="2:22" s="52" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B14" s="222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="223"/>
+      <c r="D14" s="228" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="222" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="231"/>
+      <c r="G14" s="216" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="181"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="181"/>
-      <c r="V13" s="182"/>
-    </row>
-    <row r="14" spans="2:22" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B14" s="229" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="230"/>
-      <c r="D14" s="235" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="229" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="238"/>
-      <c r="G14" s="215" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="215"/>
-      <c r="O14" s="215"/>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="215"/>
-      <c r="R14" s="215"/>
-      <c r="S14" s="215"/>
-      <c r="T14" s="215"/>
-      <c r="U14" s="215"/>
-      <c r="V14" s="215"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="216"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="216"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="216"/>
+      <c r="S14" s="216"/>
+      <c r="T14" s="216"/>
+      <c r="U14" s="216"/>
+      <c r="V14" s="216"/>
     </row>
     <row r="15" spans="2:22" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B15" s="231"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="226" t="s">
+      <c r="B15" s="224"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="234" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="234"/>
+      <c r="Q15" s="234"/>
+      <c r="R15" s="234"/>
+      <c r="S15" s="234" t="s">
+        <v>90</v>
+      </c>
+      <c r="T15" s="234"/>
+      <c r="U15" s="234"/>
+      <c r="V15" s="234"/>
+    </row>
+    <row r="16" spans="2:22" s="52" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B16" s="226"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="226"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="226" t="s">
+      <c r="I16" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="226"/>
-      <c r="M15" s="226"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="226" t="s">
+      <c r="J16" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="226"/>
-      <c r="Q15" s="226"/>
-      <c r="R15" s="226"/>
-      <c r="S15" s="226" t="s">
+      <c r="K16" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="T15" s="226"/>
-      <c r="U15" s="226"/>
-      <c r="V15" s="226"/>
-    </row>
-    <row r="16" spans="2:22" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B16" s="233"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="53" t="s">
+      <c r="L16" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="M16" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="N16" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="O16" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="P16" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="Q16" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="R16" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="S16" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="O16" s="53" t="s">
+      <c r="T16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="53" t="s">
+      <c r="U16" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Q16" s="53" t="s">
+      <c r="V16" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="R16" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="S16" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="T16" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="U16" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="V16" s="53" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="17" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B17" s="216" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="222"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="153"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="149"/>
       <c r="H17" s="148"/>
       <c r="I17" s="149"/>
       <c r="J17" s="149"/>
@@ -8927,17 +8863,13 @@
       <c r="Y17" s="65"/>
     </row>
     <row r="18" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B18" s="216" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="222"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
       <c r="I18" s="150"/>
       <c r="J18" s="149"/>
       <c r="K18" s="149"/>
@@ -8957,17 +8889,13 @@
       <c r="Y18" s="65"/>
     </row>
     <row r="19" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B19" s="216" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="216"/>
-      <c r="D19" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="222"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
       <c r="K19" s="149"/>
@@ -8987,13 +8915,13 @@
       <c r="Y19" s="65"/>
     </row>
     <row r="20" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B20" s="224" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="224"/>
+      <c r="B20" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="218"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="223"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="220"/>
       <c r="G20" s="78"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
@@ -9015,13 +8943,13 @@
       <c r="Y20" s="65"/>
     </row>
     <row r="21" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B21" s="224" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="224"/>
+      <c r="B21" s="218" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="218"/>
       <c r="D21" s="43"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="223"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
       <c r="G21" s="61"/>
       <c r="H21" s="45"/>
       <c r="I21" s="51"/>
@@ -9043,11 +8971,11 @@
       <c r="Y21" s="65"/>
     </row>
     <row r="22" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B22" s="224"/>
-      <c r="C22" s="224"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="223"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="220"/>
       <c r="G22" s="61"/>
       <c r="H22" s="45"/>
       <c r="I22" s="51"/>
@@ -9069,11 +8997,11 @@
       <c r="Y22" s="65"/>
     </row>
     <row r="23" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B23" s="224"/>
-      <c r="C23" s="224"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="223"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="220"/>
       <c r="G23" s="61"/>
       <c r="H23" s="45"/>
       <c r="I23" s="51"/>
@@ -9095,11 +9023,11 @@
       <c r="Y23" s="65"/>
     </row>
     <row r="24" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B24" s="224"/>
-      <c r="C24" s="224"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
+      <c r="E24" s="237"/>
+      <c r="F24" s="237"/>
       <c r="G24" s="63"/>
       <c r="H24" s="45"/>
       <c r="I24" s="51"/>
@@ -9121,11 +9049,11 @@
       <c r="Y24" s="65"/>
     </row>
     <row r="25" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B25" s="224"/>
-      <c r="C25" s="224"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="218"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="237"/>
       <c r="G25" s="61"/>
       <c r="H25" s="45"/>
       <c r="I25" s="51"/>
@@ -9147,11 +9075,11 @@
       <c r="Y25" s="65"/>
     </row>
     <row r="26" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B26" s="225"/>
-      <c r="C26" s="225"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="237"/>
       <c r="G26" s="61"/>
       <c r="H26" s="45"/>
       <c r="I26" s="51"/>
@@ -9173,11 +9101,11 @@
       <c r="Y26" s="65"/>
     </row>
     <row r="27" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="218"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="237"/>
       <c r="G27" s="61"/>
       <c r="H27" s="45"/>
       <c r="I27" s="51"/>
@@ -9199,11 +9127,11 @@
       <c r="Y27" s="65"/>
     </row>
     <row r="28" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B28" s="224"/>
-      <c r="C28" s="224"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="237"/>
       <c r="G28" s="61"/>
       <c r="H28" s="45"/>
       <c r="I28" s="51"/>
@@ -9225,11 +9153,11 @@
       <c r="Y28" s="65"/>
     </row>
     <row r="29" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="221"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
       <c r="G29" s="61"/>
       <c r="H29" s="45"/>
       <c r="I29" s="51"/>
@@ -9251,11 +9179,11 @@
       <c r="Y29" s="65"/>
     </row>
     <row r="30" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="218"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="221"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
       <c r="G30" s="63"/>
       <c r="H30" s="45"/>
       <c r="I30" s="51"/>
@@ -9277,11 +9205,11 @@
       <c r="Y30" s="65"/>
     </row>
     <row r="31" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B31" s="224"/>
-      <c r="C31" s="224"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="218"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
       <c r="G31" s="61"/>
       <c r="H31" s="45"/>
       <c r="I31" s="51"/>
@@ -9303,11 +9231,11 @@
       <c r="Y31" s="65"/>
     </row>
     <row r="32" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B32" s="225"/>
-      <c r="C32" s="225"/>
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
       <c r="G32" s="61"/>
       <c r="H32" s="45"/>
       <c r="I32" s="51"/>
@@ -9329,11 +9257,11 @@
       <c r="Y32" s="65"/>
     </row>
     <row r="33" spans="2:25" ht="39.75" customHeight="1">
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="218"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="221"/>
-      <c r="F33" s="221"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
       <c r="G33" s="61"/>
       <c r="H33" s="45"/>
       <c r="I33" s="51"/>
@@ -33213,6 +33141,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C9:U9"/>
+    <mergeCell ref="C11:U11"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
@@ -33229,40 +33191,6 @@
     <mergeCell ref="B13:V13"/>
     <mergeCell ref="B5:V5"/>
     <mergeCell ref="C7:U7"/>
-    <mergeCell ref="C9:U9"/>
-    <mergeCell ref="C11:U11"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -33302,60 +33230,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="52.5" customHeight="1">
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
     </row>
     <row r="3" spans="2:13" ht="21" customHeight="1">
-      <c r="B3" s="217" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="B3" s="212" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
     </row>
     <row r="4" spans="2:13" ht="14.25">
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="182"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="185"/>
     </row>
     <row r="6" spans="2:13" ht="6.95" customHeight="1">
       <c r="B6" s="22"/>
@@ -33374,17 +33302,17 @@
       <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="188"/>
+      <c r="C7" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
       <c r="L7" s="39"/>
     </row>
     <row r="8" spans="2:13" ht="6.95" customHeight="1">
@@ -33404,17 +33332,17 @@
       <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="188"/>
+      <c r="C9" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="167"/>
       <c r="L9" s="39"/>
     </row>
     <row r="10" spans="2:13" ht="6.95" customHeight="1">
@@ -33434,17 +33362,17 @@
       <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="188"/>
+      <c r="C11" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="167"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="2:13" ht="6.95" customHeight="1">
@@ -33459,73 +33387,73 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="168" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+    </row>
+    <row r="14" spans="2:13" s="41" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B14" s="239" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="239"/>
+      <c r="F14" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="241" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="245" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="245" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-    </row>
-    <row r="14" spans="2:13" s="41" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B14" s="241" t="s">
+      <c r="J14" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241" t="s">
+      <c r="K14" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241" t="s">
+      <c r="L14" s="240"/>
+      <c r="M14" s="102"/>
+    </row>
+    <row r="15" spans="2:13" s="41" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="248" t="s">
+      <c r="E15" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="243" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="243" t="s">
+      <c r="F15" s="239"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="102"/>
+    </row>
+    <row r="16" spans="2:13" s="41" customFormat="1" ht="39.75" customHeight="1">
+      <c r="B16" s="218" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="242" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="242" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="242"/>
-      <c r="M14" s="102"/>
-    </row>
-    <row r="15" spans="2:13" s="41" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B15" s="241"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="241"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="2:13" s="41" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B16" s="224" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="224"/>
+      <c r="C16" s="218"/>
       <c r="D16" s="44"/>
       <c r="E16" s="43"/>
       <c r="F16" s="45"/>
@@ -33533,14 +33461,14 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="89"/>
-      <c r="K16" s="242"/>
-      <c r="L16" s="242"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="240"/>
     </row>
     <row r="17" spans="2:12" ht="39.75" customHeight="1">
-      <c r="B17" s="224" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="224"/>
+      <c r="B17" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="218"/>
       <c r="D17" s="44"/>
       <c r="E17" s="43"/>
       <c r="F17" s="45"/>
@@ -33548,14 +33476,14 @@
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="90"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="242"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="240"/>
     </row>
     <row r="18" spans="2:12" ht="39.75" customHeight="1">
-      <c r="B18" s="224" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="224"/>
+      <c r="B18" s="218" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="218"/>
       <c r="D18" s="44"/>
       <c r="E18" s="43"/>
       <c r="F18" s="45"/>
@@ -33563,14 +33491,14 @@
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="90"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="242"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="240"/>
     </row>
     <row r="19" spans="2:12" ht="39.75" customHeight="1">
-      <c r="B19" s="224" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="224"/>
+      <c r="B19" s="218" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="218"/>
       <c r="D19" s="44"/>
       <c r="E19" s="43"/>
       <c r="F19" s="45"/>
@@ -33578,12 +33506,12 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
       <c r="J19" s="90"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="242"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="240"/>
     </row>
     <row r="20" spans="2:12" ht="39.75" customHeight="1">
-      <c r="B20" s="224"/>
-      <c r="C20" s="224"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="218"/>
       <c r="D20" s="44"/>
       <c r="E20" s="43"/>
       <c r="F20" s="45"/>
@@ -33591,12 +33519,12 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
       <c r="J20" s="90"/>
-      <c r="K20" s="242"/>
-      <c r="L20" s="242"/>
+      <c r="K20" s="240"/>
+      <c r="L20" s="240"/>
     </row>
     <row r="21" spans="2:12" ht="39.75" customHeight="1">
-      <c r="B21" s="224"/>
-      <c r="C21" s="224"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="218"/>
       <c r="D21" s="88"/>
       <c r="E21" s="43"/>
       <c r="F21" s="45"/>
@@ -33604,12 +33532,12 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
       <c r="J21" s="90"/>
-      <c r="K21" s="242"/>
-      <c r="L21" s="242"/>
+      <c r="K21" s="240"/>
+      <c r="L21" s="240"/>
     </row>
     <row r="22" spans="2:12" ht="39.75" customHeight="1">
-      <c r="B22" s="224"/>
-      <c r="C22" s="224"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
       <c r="D22" s="44"/>
       <c r="E22" s="43"/>
       <c r="F22" s="45"/>
@@ -33617,8 +33545,8 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
       <c r="J22" s="90"/>
-      <c r="K22" s="242"/>
-      <c r="L22" s="242"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="240"/>
     </row>
     <row r="23" spans="2:12" ht="41.25" customHeight="1">
       <c r="B23" s="47"/>
@@ -33626,59 +33554,59 @@
       <c r="D23" s="47"/>
     </row>
     <row r="24" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="244" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="244"/>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B25" s="243" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="243"/>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B26" s="243" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="243"/>
+      <c r="D26" s="47"/>
+    </row>
+    <row r="27" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B27" s="243" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="243"/>
+      <c r="D27" s="47"/>
+    </row>
+    <row r="28" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B28" s="243" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="243"/>
+      <c r="D28" s="47"/>
+    </row>
+    <row r="29" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B29" s="243" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="246"/>
-      <c r="D24" s="47"/>
-    </row>
-    <row r="25" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B25" s="245" t="s">
+      <c r="C29" s="243"/>
+      <c r="D29" s="47"/>
+    </row>
+    <row r="30" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B30" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="245"/>
-      <c r="D25" s="47"/>
-    </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B26" s="245" t="s">
+      <c r="C30" s="243"/>
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B31" s="243" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="245"/>
-      <c r="D26" s="47"/>
-    </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B27" s="245" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="47"/>
-    </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B28" s="245" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="245"/>
-      <c r="D28" s="47"/>
-    </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B29" s="245" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="245"/>
-      <c r="D29" s="47"/>
-    </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B30" s="245" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="245"/>
-      <c r="D30" s="47"/>
-    </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B31" s="245" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="245"/>
+      <c r="C31" s="243"/>
       <c r="D31" s="47"/>
     </row>
     <row r="32" spans="2:12" ht="26.25" customHeight="1">
@@ -33842,6 +33770,28 @@
     <row r="139" ht="41.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B4:L4"/>
@@ -33858,28 +33808,6 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -33913,48 +33841,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="52.5" customHeight="1">
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
     </row>
     <row r="3" spans="2:9" ht="21" customHeight="1">
-      <c r="B3" s="217" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
+      <c r="B3" s="212" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
     </row>
     <row r="4" spans="2:9" ht="14.25">
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
     </row>
     <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
     </row>
     <row r="6" spans="2:9" ht="6.95" customHeight="1">
       <c r="B6" s="6"/>
@@ -33970,14 +33898,14 @@
       <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
+      <c r="C7" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="2:9" ht="6.95" customHeight="1">
@@ -33994,14 +33922,14 @@
       <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
+      <c r="C9" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
       <c r="I9" s="39"/>
     </row>
     <row r="10" spans="2:9" ht="6.95" customHeight="1">
@@ -34018,14 +33946,14 @@
       <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
+      <c r="C11" s="210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="2:9" ht="6.95" customHeight="1">
@@ -34039,134 +33967,134 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="180" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="182"/>
+      <c r="B13" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="2:9" s="41" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B14" s="183" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="184"/>
+      <c r="B14" s="193" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="194"/>
       <c r="D14" s="62" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="184"/>
+        <v>115</v>
+      </c>
+      <c r="H14" s="193" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="194"/>
     </row>
     <row r="15" spans="2:9" s="41" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B15" s="252" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="253"/>
+      <c r="B15" s="247" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="248"/>
       <c r="D15" s="64"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="255"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="252"/>
     </row>
     <row r="16" spans="2:9" s="41" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B16" s="252" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="253"/>
+      <c r="B16" s="247" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="248"/>
       <c r="D16" s="50"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
     </row>
     <row r="17" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B17" s="252" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="253"/>
+      <c r="B17" s="247" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="248"/>
       <c r="D17" s="50"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="237"/>
     </row>
     <row r="18" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B18" s="252" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="253"/>
+      <c r="B18" s="247" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="248"/>
       <c r="D18" s="50"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
+      <c r="H18" s="237"/>
+      <c r="I18" s="237"/>
     </row>
     <row r="19" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B19" s="252" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="253"/>
+      <c r="B19" s="247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="248"/>
       <c r="D19" s="50"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="237"/>
     </row>
     <row r="20" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B20" s="252" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="253"/>
+      <c r="B20" s="247" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="248"/>
       <c r="D20" s="50"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
+      <c r="H20" s="237"/>
+      <c r="I20" s="237"/>
     </row>
     <row r="21" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B21" s="252" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="253"/>
+      <c r="B21" s="247" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="248"/>
       <c r="D21" s="50"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="237"/>
     </row>
     <row r="22" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B22" s="250" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="251"/>
+      <c r="B22" s="249" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="250"/>
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
+      <c r="H22" s="239"/>
+      <c r="I22" s="239"/>
     </row>
     <row r="23" spans="2:9" ht="41.25" customHeight="1">
       <c r="B23" s="47"/>
@@ -34403,16 +34331,6 @@
     <row r="137" ht="41.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="H22:I22"/>
@@ -34429,6 +34347,16 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
@@ -34438,12 +34366,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="da26bb85-01b7-434b-a7ca-4c78d76a986a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34591,15 +34518,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="da26bb85-01b7-434b-a7ca-4c78d76a986a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DB621A-3827-49A9-978A-53E94CF90864}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F19AFFD-647A-48B1-A35C-44C10D8F7954}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34607,5 +34535,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F19AFFD-647A-48B1-A35C-44C10D8F7954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DB621A-3827-49A9-978A-53E94CF90864}"/>
 </file>